--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="192">
   <si>
     <t>API Mode</t>
   </si>
@@ -529,6 +529,96 @@
   </si>
   <si>
     <t>RMA-3ZTQ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-001</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-002</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuQAAU</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuRAAU</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuSAAU</t>
+  </si>
+  <si>
+    <t>RMA-K5OY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-001</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-002</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuVAAU</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuWAAU</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuXAAU</t>
+  </si>
+  <si>
+    <t>RMA-OWPD-1-3</t>
+  </si>
+  <si>
+    <t>RMA-A1MH-001</t>
+  </si>
+  <si>
+    <t>RMA-A1MH-002</t>
+  </si>
+  <si>
+    <t>RMA-A1MH-003</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-001</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-002</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKufAAE</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKugAAE</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKuhAAE</t>
+  </si>
+  <si>
+    <t>RMA-CCH2-1-3</t>
   </si>
 </sst>
 </file>
@@ -538,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +648,258 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1288,7 +1630,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1476,11 +1818,74 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1602,8 +2007,50 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="164" fillId="0" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2472,11 +2919,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.46484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2526,10 +2973,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2538,7 +2985,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2555,10 +3002,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2567,7 +3014,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2584,10 +3031,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2596,7 +3043,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
   <si>
     <t>API Mode</t>
   </si>
@@ -531,94 +531,31 @@
     <t>RMA-3ZTQ-1-3</t>
   </si>
   <si>
-    <t>RMA-K5OY-001</t>
-  </si>
-  <si>
-    <t>RMA-K5OY-002</t>
-  </si>
-  <si>
-    <t>RMA-K5OY-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuQAAU</t>
-  </si>
-  <si>
-    <t>RMA-K5OY-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuRAAU</t>
-  </si>
-  <si>
-    <t>RMA-K5OY-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuSAAU</t>
-  </si>
-  <si>
-    <t>RMA-K5OY-1-3</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-001</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-002</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuVAAU</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuWAAU</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuXAAU</t>
-  </si>
-  <si>
-    <t>RMA-OWPD-1-3</t>
-  </si>
-  <si>
-    <t>RMA-A1MH-001</t>
-  </si>
-  <si>
-    <t>RMA-A1MH-002</t>
-  </si>
-  <si>
-    <t>RMA-A1MH-003</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-001</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-002</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKufAAE</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKugAAE</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xKuhAAE</t>
-  </si>
-  <si>
-    <t>RMA-CCH2-1-3</t>
+    <t>RMA-4Z9C-001</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-002</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL17AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL18AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL19AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-3</t>
   </si>
 </sst>
 </file>
@@ -628,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="135" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,186 +585,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1630,7 +1387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1836,56 +1593,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2019,38 +1731,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="164" fillId="0" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2919,11 +2601,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.46484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.06640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2973,10 +2655,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2985,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,10 +2684,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3014,7 +2696,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3031,10 +2713,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3043,7 +2725,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
   <si>
     <t>API Mode</t>
   </si>
@@ -556,6 +556,60 @@
   </si>
   <si>
     <t>RMA-4Z9C-1-3</t>
+  </si>
+  <si>
+    <t>RMA-N181-001</t>
+  </si>
+  <si>
+    <t>RMA-N181-002</t>
+  </si>
+  <si>
+    <t>RMA-N181-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2eAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2fAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2gAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-001</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-002</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3IAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3JAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3KAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-3</t>
   </si>
 </sst>
 </file>
@@ -565,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="159" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +639,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1387,7 +1585,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1593,11 +1791,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1731,8 +1965,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2601,11 +2859,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.06640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.3125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.26953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2655,10 +2913,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2667,7 +2925,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2684,10 +2942,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2696,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2713,10 +2971,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2725,7 +2983,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="198">
   <si>
     <t>API Mode</t>
   </si>
@@ -610,6 +610,33 @@
   </si>
   <si>
     <t>RMA-PPLQ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-001</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-002</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6MAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6NAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6OAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-3</t>
   </si>
 </sst>
 </file>
@@ -619,7 +646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="159" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +666,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1585,7 +1684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1827,11 +1926,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1989,8 +2106,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="170" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2859,11 +2988,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.3125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2913,10 +3042,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2925,7 +3054,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2942,10 +3071,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2954,7 +3083,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2971,10 +3100,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2983,7 +3112,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="207">
   <si>
     <t>API Mode</t>
   </si>
@@ -637,6 +637,33 @@
   </si>
   <si>
     <t>RMA-ZNSN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-001</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-002</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7ZAAU</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7aAAE</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7bAAE</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-3</t>
   </si>
 </sst>
 </file>
@@ -646,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="183" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +693,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1684,7 +1783,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1944,11 +2043,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2118,8 +2235,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="170" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2988,11 +3117,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.37109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5234375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3042,10 +3171,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3054,7 +3183,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3071,10 +3200,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3083,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3100,10 +3229,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3112,7 +3241,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
